--- a/appendix/mean_f1_macro_rest.xlsx
+++ b/appendix/mean_f1_macro_rest.xlsx
@@ -525,7 +525,7 @@
         <v>0.41</v>
       </c>
       <c r="G3" t="n">
-        <v>0.409</v>
+        <v>0.408</v>
       </c>
       <c r="H3" t="n">
         <v>0.433</v>

--- a/appendix/mean_f1_macro_rest.xlsx
+++ b/appendix/mean_f1_macro_rest.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.241</v>
+        <v>0.248</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364</v>
+        <v>0.374</v>
       </c>
       <c r="E5" t="n">
-        <v>0.407</v>
+        <v>0.414</v>
       </c>
       <c r="F5" t="n">
-        <v>0.452</v>
+        <v>0.462</v>
       </c>
       <c r="G5" t="n">
-        <v>0.468</v>
+        <v>0.492</v>
       </c>
       <c r="H5" t="n">
-        <v>0.491</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="6">
@@ -618,20 +618,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.241</v>
+        <v>0.248</v>
       </c>
       <c r="D7" t="n">
-        <v>0.364</v>
+        <v>0.374</v>
       </c>
       <c r="E7" t="n">
-        <v>0.412</v>
+        <v>0.414</v>
       </c>
       <c r="F7" t="n">
         <v>0.473</v>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.252</v>
+        <v>0.241</v>
       </c>
       <c r="D8" t="n">
-        <v>0.455</v>
+        <v>0.47</v>
       </c>
       <c r="E8" t="n">
-        <v>0.527</v>
+        <v>0.513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.573</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.592</v>
+        <v>0.588</v>
       </c>
       <c r="H8" t="n">
-        <v>0.621</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.305</v>
+        <v>0.281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="D9" t="n">
-        <v>0.508</v>
+        <v>0.505</v>
       </c>
       <c r="E9" t="n">
-        <v>0.543</v>
+        <v>0.546</v>
       </c>
       <c r="F9" t="n">
         <v>0.576</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6</v>
+        <v>0.596</v>
       </c>
     </row>
   </sheetData>
